--- a/COVID19Data/USA.xlsx
+++ b/COVID19Data/USA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新冠肺炎个案数据\计算\COVID19Data\data-of-country\maincountry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\songyk\EpiEstim3\COVID19\COVID19Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D569B077-E646-4F7A-8902-A47A8A73B9D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15036" windowHeight="6564"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="6570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>date</t>
   </si>
@@ -113,13 +114,22 @@
   </si>
   <si>
     <t>20200227</t>
+  </si>
+  <si>
+    <t>20200428</t>
+  </si>
+  <si>
+    <t>20200429</t>
+  </si>
+  <si>
+    <t>20200430</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,19 +509,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>20200123</v>
       </c>
@@ -551,7 +561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>20200124</v>
       </c>
@@ -571,7 +581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>20200125</v>
       </c>
@@ -591,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>20200126</v>
       </c>
@@ -611,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>20200127</v>
       </c>
@@ -631,7 +641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>20200128</v>
       </c>
@@ -651,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>20200129</v>
       </c>
@@ -671,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>20200130</v>
       </c>
@@ -691,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>20200131</v>
       </c>
@@ -711,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>20200201</v>
       </c>
@@ -731,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>20200202</v>
       </c>
@@ -751,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -771,7 +781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -791,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -811,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -831,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -851,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -871,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -891,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -911,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -931,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -951,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -971,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -991,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1011,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1031,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1051,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1071,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1091,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1111,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1131,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1151,7 +1161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1171,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1191,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1211,7 +1221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -1231,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -1251,7 +1261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>20200228</v>
       </c>
@@ -1271,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>20200229</v>
       </c>
@@ -1291,7 +1301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>20200301</v>
       </c>
@@ -1311,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>20200302</v>
       </c>
@@ -1331,7 +1341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>20200303</v>
       </c>
@@ -1351,7 +1361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>20200304</v>
       </c>
@@ -1371,7 +1381,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>20200305</v>
       </c>
@@ -1391,7 +1401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>20200306</v>
       </c>
@@ -1411,7 +1421,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>20200307</v>
       </c>
@@ -1431,7 +1441,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>20200308</v>
       </c>
@@ -1451,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>20200309</v>
       </c>
@@ -1471,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>20200310</v>
       </c>
@@ -1491,7 +1501,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>20200311</v>
       </c>
@@ -1511,7 +1521,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>20200312</v>
       </c>
@@ -1531,7 +1541,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>20200313</v>
       </c>
@@ -1551,7 +1561,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>20200314</v>
       </c>
@@ -1571,7 +1581,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>20200315</v>
       </c>
@@ -1591,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>20200316</v>
       </c>
@@ -1611,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>20200317</v>
       </c>
@@ -1631,7 +1641,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>20200318</v>
       </c>
@@ -1651,7 +1661,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>20200319</v>
       </c>
@@ -1671,7 +1681,7 @@
         <v>3551</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>20200320</v>
       </c>
@@ -1691,7 +1701,7 @@
         <v>3355</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>20200321</v>
       </c>
@@ -1711,7 +1721,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>20200322</v>
       </c>
@@ -1731,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>20200323</v>
       </c>
@@ -1751,7 +1761,7 @@
         <v>16354</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>20200324</v>
       </c>
@@ -1771,7 +1781,7 @@
         <v>10591</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>20200325</v>
       </c>
@@ -1791,7 +1801,7 @@
         <v>9750</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>20200326</v>
       </c>
@@ -1811,7 +1821,7 @@
         <v>11656</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>20200327</v>
       </c>
@@ -1831,7 +1841,7 @@
         <v>4764</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>20200328</v>
       </c>
@@ -1851,7 +1861,7 @@
         <v>16894</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>20200329</v>
       </c>
@@ -1871,7 +1881,7 @@
         <v>18093</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>20200330</v>
       </c>
@@ -1891,7 +1901,7 @@
         <v>19332</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>20200331</v>
       </c>
@@ -1911,7 +1921,7 @@
         <v>17987</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>20200401</v>
       </c>
@@ -1931,7 +1941,7 @@
         <v>22559</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>20200402</v>
       </c>
@@ -1951,7 +1961,7 @@
         <v>24103</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>20200403</v>
       </c>
@@ -1971,7 +1981,7 @@
         <v>26298</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>20200404</v>
       </c>
@@ -1991,7 +2001,7 @@
         <v>28103</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>20200405</v>
       </c>
@@ -2011,7 +2021,7 @@
         <v>32105</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>20200406</v>
       </c>
@@ -2031,7 +2041,7 @@
         <v>33510</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>20200407</v>
       </c>
@@ -2051,7 +2061,7 @@
         <v>26493</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>20200408</v>
       </c>
@@ -2071,7 +2081,7 @@
         <v>29510</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>20200409</v>
       </c>
@@ -2091,7 +2101,7 @@
         <v>31709</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>20200410</v>
       </c>
@@ -2111,324 +2121,864 @@
         <v>30859</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81">
+        <v>20200411</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82">
         <v>20200412</v>
       </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
         <v>31606</v>
       </c>
-      <c r="F81">
+      <c r="F82">
         <v>31606</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83">
         <v>20200413</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
         <v>31633</v>
       </c>
-      <c r="F82">
+      <c r="F83">
         <v>31633</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84">
         <v>20200414</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
         <v>29308</v>
       </c>
-      <c r="F83">
+      <c r="F84">
         <v>29308</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85">
         <v>20200415</v>
       </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
         <v>24446</v>
       </c>
-      <c r="F84">
+      <c r="F85">
         <v>24446</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86">
         <v>20200416</v>
       </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
         <v>25802</v>
       </c>
-      <c r="F85">
+      <c r="F86">
         <v>25802</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87">
         <v>20200417</v>
       </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
         <v>28711</v>
       </c>
-      <c r="F86">
+      <c r="F87">
         <v>28711</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88">
         <v>20200418</v>
       </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
         <v>32549</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <v>32549</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89">
         <v>20200419</v>
       </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
         <v>30023</v>
       </c>
-      <c r="F88">
+      <c r="F89">
         <v>30023</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90">
         <v>20200420</v>
       </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
         <v>28252</v>
       </c>
-      <c r="F89">
+      <c r="F90">
         <v>28252</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91">
         <v>20200421</v>
       </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
         <v>27668</v>
       </c>
-      <c r="F90">
+      <c r="F91">
         <v>27668</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92">
         <v>20200422</v>
       </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
         <v>25634</v>
       </c>
-      <c r="F91">
+      <c r="F92">
         <v>25634</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93">
         <v>20200423</v>
       </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
         <v>24019</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <v>24019</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94">
         <v>20200424</v>
       </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
         <v>29127</v>
       </c>
-      <c r="F93">
+      <c r="F94">
         <v>29127</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95">
         <v>20200425</v>
       </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
         <v>30719</v>
       </c>
-      <c r="F94">
+      <c r="F95">
         <v>30719</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96">
         <v>20200426</v>
       </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
         <v>38509</v>
       </c>
-      <c r="F95">
+      <c r="F96">
         <v>38509</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97">
         <v>20200427</v>
       </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
         <v>32417</v>
       </c>
-      <c r="F96">
+      <c r="F97">
         <v>32417</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>29218</v>
+      </c>
+      <c r="F98">
+        <v>29218</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>22541</v>
+      </c>
+      <c r="F99">
+        <v>22541</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>20517</v>
+      </c>
+      <c r="F100">
+        <v>20517</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>20200501</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>31379</v>
+      </c>
+      <c r="F101">
+        <v>31379</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>20200502</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>31774</v>
+      </c>
+      <c r="F102">
+        <v>31774</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>20200503</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>26753</v>
+      </c>
+      <c r="F103">
+        <v>26753</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>20200504</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>31839</v>
+      </c>
+      <c r="F104">
+        <v>31839</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>20200505</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>29266</v>
+      </c>
+      <c r="F105">
+        <v>29266</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>20200506</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>16200</v>
+      </c>
+      <c r="F106">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>20200507</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>22267</v>
+      </c>
+      <c r="F107">
+        <v>22267</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>20200508</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>22119</v>
+      </c>
+      <c r="F108">
+        <v>22119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>20200509</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>30303</v>
+      </c>
+      <c r="F109">
+        <v>30303</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>20200510</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>20200511</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>25870</v>
+      </c>
+      <c r="F111">
+        <v>25870</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>20200512</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>26642</v>
+      </c>
+      <c r="F112">
+        <v>26642</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>20200513</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>23767</v>
+      </c>
+      <c r="F113">
+        <v>23767</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>20200514</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>18044</v>
+      </c>
+      <c r="F114">
+        <v>18044</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>20200515</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>21424</v>
+      </c>
+      <c r="F115">
+        <v>21424</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>20200516</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>20840</v>
+      </c>
+      <c r="F116">
+        <v>20840</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>20200517</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>27090</v>
+      </c>
+      <c r="F117">
+        <v>27090</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>20200518</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>22813</v>
+      </c>
+      <c r="F118">
+        <v>22813</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>20200519</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>31967</v>
+      </c>
+      <c r="F119">
+        <v>31967</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>20200520</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>13227</v>
+      </c>
+      <c r="F120">
+        <v>13227</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>20200521</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>24417</v>
+      </c>
+      <c r="F121">
+        <v>24417</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A122">
+        <v>20200522</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>23310</v>
+      </c>
+      <c r="F122">
+        <v>23310</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123">
+        <v>20200523</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>22787</v>
+      </c>
+      <c r="F123">
+        <v>22787</v>
       </c>
     </row>
   </sheetData>
